--- a/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media de inicio de consumición de bebidas alcohólicas años</t>
+          <t>Edad media de inicio de consumición de bebidas alcohólicas años (tasa de respuesta: 97,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,58</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,3</t>
+          <t>23,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,53</t>
+          <t>18,03; 19,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,74</t>
+          <t>16,66; 17,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,67</t>
+          <t>21,57; 28,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,97; 21,24</t>
+          <t>17,97; 21,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,08; 22,54</t>
+          <t>19,7; 22,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,48</t>
+          <t>17,27; 18,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,33</t>
+          <t>18,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,89</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,25</t>
+          <t>19,06</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 18,82</t>
+          <t>17,88; 18,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,51</t>
+          <t>17,05; 17,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 21,8</t>
+          <t>19,92; 21,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 19,26</t>
+          <t>16,57; 19,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,9; 19,72</t>
+          <t>18,73; 19,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,97</t>
+          <t>16,79; 17,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,83</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 19,88</t>
+          <t>18,53; 19,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,55</t>
+          <t>17,51; 18,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,74; 21,42</t>
+          <t>19,4; 21,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 18,6</t>
+          <t>17,74; 18,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 20,49</t>
+          <t>19,19; 20,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,4</t>
+          <t>17,73; 18,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,55</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,25</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,64</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 18,97</t>
+          <t>18,26; 18,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,65</t>
+          <t>17,23; 17,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 21,89</t>
+          <t>20,17; 21,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 18,9</t>
+          <t>16,84; 18,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,36; 19,97</t>
+          <t>19,09; 19,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,99</t>
+          <t>17,04; 17,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>17,12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16,5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>18,71</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,5</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>19,37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20,0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>23,79</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,48</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>17,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>20,6</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,61</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>16,66; 17,71</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16,04; 17,06</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>18,03; 19,54</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,66; 17,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>16,04; 17,06</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>17,96; 21,17</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 23,29</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>21,57; 28,58</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>17,97; 21,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,66; 23,29</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>17,25; 18,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,03; 18,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>19,7; 22,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>17,27; 18,46</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,03; 18,75</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,26</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16,88</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18,22</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,88</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>19,1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,9</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>20,64</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,9</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,31</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>19,06</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,51</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,31</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>17,06; 17,52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 17,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17,88; 18,63</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,05; 17,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,11</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>18,54; 19,66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 18,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>19,92; 21,64</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>16,57; 19,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 18,3</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>17,69; 18,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 17,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>18,73; 19,53</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 17,52</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,89</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17,01</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>19,2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18,23</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17,31</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>20,16</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,15</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,31</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>18,03</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>19,68</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,02</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,15</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,51; 18,44</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 17,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>18,53; 19,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17,51; 18,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>16,83; 17,27</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>17,83; 18,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 17,65</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>19,4; 21,22</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,62</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 17,65</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>17,75; 18,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 17,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>19,19; 20,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 18,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>16,99; 17,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>18,53</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>18,82</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>20,73</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,96</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>19,41</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,67</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,28</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,25; 17,66</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 17,04</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>18,26; 18,88</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>17,23; 17,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 17,04</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>18,47; 19,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 18,11</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>20,17; 21,4</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 18,91</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,56; 18,11</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17,78; 18,15</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 17,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>19,09; 19,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 17,98</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 17,45</t>
         </is>
       </c>
     </row>
